--- a/mappingCorps/ig/StructureDefinition-fr-lm-traitement.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-traitement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T15:05:54+00:00</t>
+    <t>2026-01-05T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-traitement.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-traitement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-05T15:47:03+00:00</t>
+    <t>2026-01-07T15:20:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-traitement.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-traitement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T15:20:53+00:00</t>
+    <t>2026-01-07T21:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-traitement.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-traitement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T21:00:10+00:00</t>
+    <t>2026-01-14T15:34:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Entrée Traitement</t>
+    <t>Traitement</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-traitement.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-traitement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="131">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T15:34:52+00:00</t>
+    <t>2026-01-16T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -356,6 +356,16 @@
   </si>
   <si>
     <t>Rythme d'administration</t>
+  </si>
+  <si>
+    <t>fr-lm-traitement.dosage.doseMaximale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
+    <t>Dose maximale</t>
   </si>
   <si>
     <t>fr-lm-traitement.medicament</t>
@@ -716,7 +726,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AJ20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2085,7 +2095,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -2160,7 +2170,7 @@
         <v>111</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
@@ -2185,10 +2195,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -2260,10 +2270,10 @@
         <v>114</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
@@ -2488,7 +2498,7 @@
         <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -2563,7 +2573,7 @@
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
@@ -2600,13 +2610,13 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2669,6 +2679,106 @@
         <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-traitement.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-traitement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:41:46+00:00</t>
+    <t>2026-01-16T14:59:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
